--- a/data/trans_orig/P05B-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P05B-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>2613</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7124</v>
+        <v>7027</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.002536986715408748</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0008190655883053024</v>
+        <v>0.0008183366938335301</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.006916767778557565</v>
+        <v>0.006822261246587029</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>6</v>
@@ -765,19 +765,19 @@
         <v>5603</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1834</v>
+        <v>2007</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>12161</v>
+        <v>11755</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0042604168791939</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.001394923590049366</v>
+        <v>0.001525876837389263</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0092472831500912</v>
+        <v>0.00893863437744211</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>9</v>
@@ -786,19 +786,19 @@
         <v>8216</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3794</v>
+        <v>4264</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>15924</v>
+        <v>14886</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.003503484877884301</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.001617688708521584</v>
+        <v>0.001818309357234612</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.006790446449002694</v>
+        <v>0.006347906448170015</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>28882</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>19446</v>
+        <v>18796</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>41407</v>
+        <v>39258</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02804215594968025</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01888010005460598</v>
+        <v>0.0182490490591434</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.04020304596275455</v>
+        <v>0.03811573909344777</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>62</v>
@@ -836,19 +836,19 @@
         <v>62390</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>48337</v>
+        <v>47923</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>79203</v>
+        <v>79140</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.0474406789167998</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03675523178667263</v>
+        <v>0.03644043807768114</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.060225074218402</v>
+        <v>0.06017768699601872</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>92</v>
@@ -857,19 +857,19 @@
         <v>91272</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>75205</v>
+        <v>73977</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>112689</v>
+        <v>109980</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03892083104567801</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03206933042721656</v>
+        <v>0.03154594422725381</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.04805352327332205</v>
+        <v>0.04689840706395036</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>224934</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>198377</v>
+        <v>200983</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>252091</v>
+        <v>255591</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2183923136778353</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1926074001797187</v>
+        <v>0.1951379287482028</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.244759481169056</v>
+        <v>0.2481571119942551</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>268</v>
@@ -907,19 +907,19 @@
         <v>275559</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>248101</v>
+        <v>249621</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>311267</v>
+        <v>306100</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2095329183123054</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1886536070742323</v>
+        <v>0.1898096625597955</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2366847677988329</v>
+        <v>0.232755364178914</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>493</v>
@@ -928,19 +928,19 @@
         <v>500494</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>463775</v>
+        <v>459903</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>540845</v>
+        <v>542757</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2134239723308189</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1977660328903915</v>
+        <v>0.1961148759305455</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2306305276823905</v>
+        <v>0.2314458889941853</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>669668</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>638695</v>
+        <v>638347</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>698398</v>
+        <v>696984</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6501907054131544</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6201191780711255</v>
+        <v>0.6197810827087368</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.678085685231594</v>
+        <v>0.6767124054818885</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>851</v>
@@ -978,19 +978,19 @@
         <v>860324</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>824208</v>
+        <v>826304</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>893326</v>
+        <v>894151</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.6541824391207305</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6267200641006271</v>
+        <v>0.6283139867741729</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6792772726038826</v>
+        <v>0.6799040817483658</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1525</v>
@@ -999,19 +999,19 @@
         <v>1529992</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1482878</v>
+        <v>1485240</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1572924</v>
+        <v>1580858</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.6524292662637958</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6323387787149456</v>
+        <v>0.6333461483174867</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6707366744547358</v>
+        <v>0.6741202278828858</v>
       </c>
     </row>
     <row r="8">
@@ -1028,19 +1028,19 @@
         <v>103859</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>85892</v>
+        <v>84887</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>125542</v>
+        <v>123269</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1008378382439213</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.08339389522607156</v>
+        <v>0.08241819018955918</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1218903100836969</v>
+        <v>0.1196832792646506</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>104</v>
@@ -1049,19 +1049,19 @@
         <v>111237</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>92727</v>
+        <v>91446</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>132651</v>
+        <v>133092</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.08458354677097045</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.07050876385223395</v>
+        <v>0.06953465488934919</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1008668446085285</v>
+        <v>0.1012019586227787</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>208</v>
@@ -1070,19 +1070,19 @@
         <v>215095</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>188894</v>
+        <v>188655</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>244227</v>
+        <v>245315</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.09172244548182303</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.08054942307588869</v>
+        <v>0.08044768699765011</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1041448551866766</v>
+        <v>0.1046087873490401</v>
       </c>
     </row>
     <row r="9">
@@ -1174,19 +1174,19 @@
         <v>13309</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7236</v>
+        <v>6808</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>24207</v>
+        <v>23621</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.007859434506350389</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.004273181381373527</v>
+        <v>0.004020138479388091</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01429505056552379</v>
+        <v>0.01394847056768575</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>10</v>
@@ -1195,19 +1195,19 @@
         <v>9816</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4516</v>
+        <v>4768</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>18318</v>
+        <v>17342</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.006188705626491847</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.002847309472220303</v>
+        <v>0.003006469317849572</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01154967846864833</v>
+        <v>0.01093429572113266</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>22</v>
@@ -1216,19 +1216,19 @@
         <v>23125</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>15310</v>
+        <v>14691</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>35185</v>
+        <v>36310</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.007051418381732649</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.004668382556019348</v>
+        <v>0.004479698995857569</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01072877267609207</v>
+        <v>0.01107200375676233</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>35044</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>24497</v>
+        <v>24956</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>48404</v>
+        <v>49535</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02069426508351526</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.0144658578951047</v>
+        <v>0.0147369437959637</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02858376566798557</v>
+        <v>0.02925131686396558</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>58</v>
@@ -1266,19 +1266,19 @@
         <v>59823</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>46902</v>
+        <v>45603</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>78448</v>
+        <v>77029</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.03771817083710223</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02957153104575199</v>
+        <v>0.02875286978932159</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.04946138139641295</v>
+        <v>0.04856634853293661</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>91</v>
@@ -1287,19 +1287,19 @@
         <v>94867</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>78263</v>
+        <v>78111</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>118168</v>
+        <v>117698</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02892755207502023</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02386465634328085</v>
+        <v>0.02381834076150241</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03603274061385198</v>
+        <v>0.03588928389561438</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>315491</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>280692</v>
+        <v>284955</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>346837</v>
+        <v>347273</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1863050007911403</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1657549098142179</v>
+        <v>0.1682726233319918</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2048154803004202</v>
+        <v>0.2050725628502674</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>321</v>
@@ -1337,19 +1337,19 @@
         <v>332202</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>297915</v>
+        <v>300407</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>365075</v>
+        <v>362525</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.209452749767557</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1878343713104042</v>
+        <v>0.1894058716014073</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2301787500778658</v>
+        <v>0.2285708257995418</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>633</v>
@@ -1358,19 +1358,19 @@
         <v>647694</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>606745</v>
+        <v>603145</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>694968</v>
+        <v>692572</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1974999676388625</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1850134327945961</v>
+        <v>0.1839159209975002</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.21191516228995</v>
+        <v>0.2111846834187974</v>
       </c>
     </row>
     <row r="13">
@@ -1387,19 +1387,19 @@
         <v>1154618</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1113147</v>
+        <v>1112920</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1191559</v>
+        <v>1191678</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6818291574576345</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6573394467351459</v>
+        <v>0.6572055135117385</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7036431890461013</v>
+        <v>0.7037140005975435</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1000</v>
@@ -1408,19 +1408,19 @@
         <v>1016844</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>980621</v>
+        <v>977491</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>1057761</v>
+        <v>1053894</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6411174610564558</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6182791470729291</v>
+        <v>0.6163056914993744</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.666915498358197</v>
+        <v>0.6644773532478316</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>2122</v>
@@ -1429,19 +1429,19 @@
         <v>2171462</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2113492</v>
+        <v>2113434</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>2216727</v>
+        <v>2221303</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6621397227748034</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6444629150266231</v>
+        <v>0.6444454910165738</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6759423952599748</v>
+        <v>0.6773375948041614</v>
       </c>
     </row>
     <row r="14">
@@ -1458,19 +1458,19 @@
         <v>174950</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>152669</v>
+        <v>151615</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>204706</v>
+        <v>200065</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1033121421613596</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.09015436396576128</v>
+        <v>0.08953198351032798</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1208837087591537</v>
+        <v>0.1181427885514713</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>164</v>
@@ -1479,19 +1479,19 @@
         <v>167365</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>141777</v>
+        <v>143692</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>192366</v>
+        <v>192422</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.105522912712393</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.08939029733861863</v>
+        <v>0.09059739729262269</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1212865943602491</v>
+        <v>0.1213215722680386</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>334</v>
@@ -1500,19 +1500,19 @@
         <v>342315</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>309517</v>
+        <v>308914</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>376365</v>
+        <v>382372</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1043813391295812</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.09438041450716171</v>
+        <v>0.09419656920565321</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.114764188412491</v>
+        <v>0.1165958776844175</v>
       </c>
     </row>
     <row r="15">
@@ -1604,19 +1604,19 @@
         <v>5746</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2173</v>
+        <v>2105</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>13342</v>
+        <v>13024</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0104644736468425</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.003957659672380033</v>
+        <v>0.003833587180347946</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02429996937537791</v>
+        <v>0.02372009316277287</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -1625,19 +1625,19 @@
         <v>4722</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1230</v>
+        <v>1220</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>11782</v>
+        <v>11034</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.009910829438041819</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0025821217175807</v>
+        <v>0.00256060145010869</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02473025667631223</v>
+        <v>0.02316154463393511</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>9</v>
@@ -1646,19 +1646,19 @@
         <v>10467</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4958</v>
+        <v>4888</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>20079</v>
+        <v>19594</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01020726136404331</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.004835179759966488</v>
+        <v>0.004766305789094482</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01958069748500263</v>
+        <v>0.01910770959982418</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>10763</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5842</v>
+        <v>5847</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>18645</v>
+        <v>18390</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01960333177968225</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01064069719283124</v>
+        <v>0.01064990218454966</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03395847961113886</v>
+        <v>0.03349413437502301</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>15</v>
@@ -1696,19 +1696,19 @@
         <v>15929</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>8833</v>
+        <v>9243</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>24576</v>
+        <v>25394</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.03343520816953284</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01854080659197301</v>
+        <v>0.01940196176684012</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.05158468156474209</v>
+        <v>0.05330208600837916</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>26</v>
@@ -1717,19 +1717,19 @@
         <v>26692</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>17087</v>
+        <v>17839</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>39927</v>
+        <v>38587</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02602935131547143</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01666277018472346</v>
+        <v>0.01739631154672141</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.0389354350243199</v>
+        <v>0.03762866947140518</v>
       </c>
     </row>
     <row r="18">
@@ -1746,19 +1746,19 @@
         <v>123562</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>105389</v>
+        <v>103076</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>147475</v>
+        <v>146430</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2250442047147274</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1919462559735538</v>
+        <v>0.1877333481098145</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2685976487743552</v>
+        <v>0.2666946320281567</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>91</v>
@@ -1767,19 +1767,19 @@
         <v>97638</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>80918</v>
+        <v>81606</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>117366</v>
+        <v>115323</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2049437749428966</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1698497566152391</v>
+        <v>0.1712932736938245</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2463546104232253</v>
+        <v>0.2420662221802025</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>206</v>
@@ -1788,19 +1788,19 @@
         <v>221199</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>195499</v>
+        <v>198000</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>249309</v>
+        <v>251979</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2157059377471075</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1906438396620478</v>
+        <v>0.1930825126602588</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2431177815322204</v>
+        <v>0.2457213807388834</v>
       </c>
     </row>
     <row r="19">
@@ -1817,19 +1817,19 @@
         <v>331837</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>306747</v>
+        <v>308676</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>357378</v>
+        <v>357178</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.6043785350229659</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.5586808943229099</v>
+        <v>0.5621948758562682</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.6508972480061246</v>
+        <v>0.650532386311341</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>297</v>
@@ -1838,19 +1838,19 @@
         <v>310656</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>290090</v>
+        <v>291065</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>331110</v>
+        <v>332310</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.6520750235312744</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.6089051936204459</v>
+        <v>0.610952537568614</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6950074853568083</v>
+        <v>0.6975275227490586</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>618</v>
@@ -1859,19 +1859,19 @@
         <v>642493</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>607830</v>
+        <v>610144</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>671928</v>
+        <v>670845</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.6265373917322288</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5927352805453752</v>
+        <v>0.5949923397238629</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6552411606118518</v>
+        <v>0.6541857093728372</v>
       </c>
     </row>
     <row r="20">
@@ -1888,19 +1888,19 @@
         <v>77147</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>61997</v>
+        <v>60276</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>96295</v>
+        <v>94635</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1405094548357819</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.112915716818933</v>
+        <v>0.1097806540423086</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1753836947752447</v>
+        <v>0.1723590857623568</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>45</v>
@@ -1909,19 +1909,19 @@
         <v>47467</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>35319</v>
+        <v>35344</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>62580</v>
+        <v>61720</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.09963516391825424</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.07413581377498579</v>
+        <v>0.07418797724777912</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.131357517139758</v>
+        <v>0.1295525278281972</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>118</v>
@@ -1930,19 +1930,19 @@
         <v>124615</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>104572</v>
+        <v>103294</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>147887</v>
+        <v>146416</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.121520057841149</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.101975514988935</v>
+        <v>0.1007290469601243</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1442142496162913</v>
+        <v>0.1427803486883</v>
       </c>
     </row>
     <row r="21">
@@ -2034,19 +2034,19 @@
         <v>21668</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>13142</v>
+        <v>13058</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>33679</v>
+        <v>33420</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.006621337010232728</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.004016056411445541</v>
+        <v>0.003990288630947694</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01029178232410889</v>
+        <v>0.01021256551642611</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>20</v>
@@ -2055,19 +2055,19 @@
         <v>20140</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>12769</v>
+        <v>12289</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>29945</v>
+        <v>30089</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.005962906283144597</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.003780548539434689</v>
+        <v>0.003638536158768079</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.00886590729219114</v>
+        <v>0.008908439633531716</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>40</v>
@@ -2076,19 +2076,19 @@
         <v>41808</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>30362</v>
+        <v>30500</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>56588</v>
+        <v>56219</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.006286916097572996</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.00456564737693201</v>
+        <v>0.004586418926423389</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.008509461171006937</v>
+        <v>0.008454017909885227</v>
       </c>
     </row>
     <row r="23">
@@ -2105,19 +2105,19 @@
         <v>74689</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>59976</v>
+        <v>58206</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>92642</v>
+        <v>93419</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.02282388676144004</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01832784173255952</v>
+        <v>0.01778673364988813</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.0283098124196299</v>
+        <v>0.02854723331262644</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>135</v>
@@ -2126,19 +2126,19 @@
         <v>138142</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>116704</v>
+        <v>117299</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>163379</v>
+        <v>163331</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.04089966810089239</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.03455275075200866</v>
+        <v>0.03472876230439622</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.04837167596481669</v>
+        <v>0.04835736959763497</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>209</v>
@@ -2147,19 +2147,19 @@
         <v>212831</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>186773</v>
+        <v>187767</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>242279</v>
+        <v>243847</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.03200468444278563</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.02808623745448365</v>
+        <v>0.02823571027912907</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.03643293690310308</v>
+        <v>0.03666873897778088</v>
       </c>
     </row>
     <row r="24">
@@ -2176,19 +2176,19 @@
         <v>663987</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>621259</v>
+        <v>625011</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>710060</v>
+        <v>710617</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2029038519495868</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.189846869153695</v>
+        <v>0.1909932594296246</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2169829194438007</v>
+        <v>0.2171532395577957</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>680</v>
@@ -2197,19 +2197,19 @@
         <v>705399</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>656219</v>
+        <v>655851</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>747038</v>
+        <v>747292</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2088479672066579</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1942872740511924</v>
+        <v>0.1941781289090133</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2211760356852089</v>
+        <v>0.2212511425364289</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1332</v>
@@ -2218,19 +2218,19 @@
         <v>1369387</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1296721</v>
+        <v>1302202</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1431358</v>
+        <v>1433193</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2059229037153138</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1949957097625547</v>
+        <v>0.1958199012295556</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2152418374539748</v>
+        <v>0.2155178378545494</v>
       </c>
     </row>
     <row r="25">
@@ -2247,19 +2247,19 @@
         <v>2156123</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2097920</v>
+        <v>2092560</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>2207961</v>
+        <v>2207467</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.6588764894581106</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.6410905225259925</v>
+        <v>0.6394525161351515</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.6747173506728847</v>
+        <v>0.6745662244941978</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2148</v>
@@ -2268,19 +2268,19 @@
         <v>2187823</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2136248</v>
+        <v>2132973</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>2248582</v>
+        <v>2244104</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.6477501012469195</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.6324801520396365</v>
+        <v>0.6315106071809781</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.665739053653408</v>
+        <v>0.6644132993488278</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>4265</v>
@@ -2289,19 +2289,19 @@
         <v>4343946</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>4276603</v>
+        <v>4269916</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>4425028</v>
+        <v>4423089</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.6532253301985049</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.6430984403732632</v>
+        <v>0.6420928769997788</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.6654180676813152</v>
+        <v>0.66512651273668</v>
       </c>
     </row>
     <row r="26">
@@ -2318,19 +2318,19 @@
         <v>355956</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>320528</v>
+        <v>320110</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>392511</v>
+        <v>392553</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1087744348206298</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.09794820221991714</v>
+        <v>0.09782051590981329</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1199451425349721</v>
+        <v>0.1199579263067036</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>313</v>
@@ -2339,19 +2339,19 @@
         <v>326069</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>291871</v>
+        <v>294110</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>361795</v>
+        <v>360831</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.09653935716238567</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.08641451962206453</v>
+        <v>0.08707743410533718</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1071169627052387</v>
+        <v>0.1068313223519793</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>660</v>
@@ -2360,19 +2360,19 @@
         <v>682025</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>635541</v>
+        <v>633795</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>733846</v>
+        <v>732943</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1025601655458227</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.09557010074545337</v>
+        <v>0.09530749141229646</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1103528226570631</v>
+        <v>0.1102170967543713</v>
       </c>
     </row>
     <row r="27">
@@ -2703,19 +2703,19 @@
         <v>2758</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>722</v>
+        <v>727</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7552</v>
+        <v>8270</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.002841168686396526</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0007437804248667135</v>
+        <v>0.0007485326554010062</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.007780070154080547</v>
+        <v>0.008519968138237419</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -2727,16 +2727,16 @@
         <v>1090</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8906</v>
+        <v>8901</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.002507257726689973</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0008212249790604797</v>
+        <v>0.0008215319332082475</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.00671081064321176</v>
+        <v>0.006707075572433546</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>6</v>
@@ -2745,19 +2745,19 @@
         <v>6085</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2144</v>
+        <v>2117</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>12306</v>
+        <v>12368</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.002648308061940084</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.000932864076081662</v>
+        <v>0.0009214917724184655</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.005355535213075572</v>
+        <v>0.005382480335421091</v>
       </c>
     </row>
     <row r="5">
@@ -2774,19 +2774,19 @@
         <v>11101</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5958</v>
+        <v>6066</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>20285</v>
+        <v>22049</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01143697107040556</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.006138311490437148</v>
+        <v>0.006249538330609602</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02089818759192367</v>
+        <v>0.02271629151151825</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>12</v>
@@ -2795,19 +2795,19 @@
         <v>14126</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>7575</v>
+        <v>7726</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>24405</v>
+        <v>24260</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.010644072339291</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.005707406801595673</v>
+        <v>0.005821642263296868</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.01838870671799928</v>
+        <v>0.01827983907212026</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>23</v>
@@ -2816,19 +2816,19 @@
         <v>25228</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>17030</v>
+        <v>16278</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>38034</v>
+        <v>37772</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01097900783209837</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.007411439108222128</v>
+        <v>0.007083936164672801</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01655236167746959</v>
+        <v>0.01643833161810481</v>
       </c>
     </row>
     <row r="6">
@@ -2845,19 +2845,19 @@
         <v>136448</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>116197</v>
+        <v>117021</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>162290</v>
+        <v>161370</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1405758890553551</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1197119275101255</v>
+        <v>0.1205606142932893</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1671997402949397</v>
+        <v>0.1662514210133446</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>195</v>
@@ -2866,19 +2866,19 @@
         <v>205608</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>179849</v>
+        <v>181162</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>229004</v>
+        <v>232807</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.154922187302512</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1355130049007068</v>
+        <v>0.1365023427177021</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1725504431093696</v>
+        <v>0.1754163622517763</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>320</v>
@@ -2887,19 +2887,19 @@
         <v>342056</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>305991</v>
+        <v>307724</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>377357</v>
+        <v>375610</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1488620382761432</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1331666307021595</v>
+        <v>0.1339206458522196</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.164225114790485</v>
+        <v>0.1634646658579926</v>
       </c>
     </row>
     <row r="7">
@@ -2916,19 +2916,19 @@
         <v>726485</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>697443</v>
+        <v>697221</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>752220</v>
+        <v>755758</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.748461891479545</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7185415418575131</v>
+        <v>0.7183123801484891</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7749758247954969</v>
+        <v>0.7786204727767327</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>913</v>
@@ -2937,19 +2937,19 @@
         <v>979643</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>947224</v>
+        <v>946822</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>1011830</v>
+        <v>1011028</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7381446740819705</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7137177790073593</v>
+        <v>0.7134151486680589</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7623973167382923</v>
+        <v>0.7617926108290766</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1588</v>
@@ -2958,19 +2958,19 @@
         <v>1706127</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1663710</v>
+        <v>1665080</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1748607</v>
+        <v>1751740</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.742502862786094</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7240430596482265</v>
+        <v>0.7246395948915905</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7609900454160839</v>
+        <v>0.7623535304958131</v>
       </c>
     </row>
     <row r="8">
@@ -2987,19 +2987,19 @@
         <v>93845</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>75953</v>
+        <v>76320</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>113759</v>
+        <v>115997</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.09668407970829776</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.07825113286860498</v>
+        <v>0.07862875223877883</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1172004211202469</v>
+        <v>0.1195057390651202</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>114</v>
@@ -3008,19 +3008,19 @@
         <v>124464</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>102610</v>
+        <v>101577</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>145912</v>
+        <v>146466</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.09378180854953659</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.07731498592927938</v>
+        <v>0.07653645768978665</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1099423123845813</v>
+        <v>0.1103596479704926</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>204</v>
@@ -3029,19 +3029,19 @@
         <v>218309</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>192971</v>
+        <v>192274</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>246212</v>
+        <v>249281</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.09500778304372434</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.08398040225985083</v>
+        <v>0.08367714089845586</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.107150956476523</v>
+        <v>0.1084866809888653</v>
       </c>
     </row>
     <row r="9">
@@ -3133,19 +3133,19 @@
         <v>7806</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2940</v>
+        <v>3775</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>15848</v>
+        <v>17786</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.003988456216797845</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001502317420225797</v>
+        <v>0.001928587774782647</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.008097315035140008</v>
+        <v>0.009087794589485745</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>4</v>
@@ -3154,19 +3154,19 @@
         <v>4082</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>9231</v>
+        <v>10456</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.002329271713477619</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0005834490370507354</v>
+        <v>0.0005844856735722427</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.005267074373953732</v>
+        <v>0.005965849223630188</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>11</v>
@@ -3175,19 +3175,19 @@
         <v>11888</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>6269</v>
+        <v>5938</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>20925</v>
+        <v>20905</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.003204585473406125</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.001689810958418178</v>
+        <v>0.001600698391665364</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.005640554395259455</v>
+        <v>0.005634919887193284</v>
       </c>
     </row>
     <row r="11">
@@ -3204,19 +3204,19 @@
         <v>23884</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>14573</v>
+        <v>14659</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>36786</v>
+        <v>36329</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01220360620999919</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.007446223817567509</v>
+        <v>0.007490080065515856</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.0187957990403859</v>
+        <v>0.01856254754722562</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>29</v>
@@ -3225,19 +3225,19 @@
         <v>31402</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>21037</v>
+        <v>21522</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>44243</v>
+        <v>45166</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01791657449855721</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01200273383189136</v>
+        <v>0.01227942254558572</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02524280897913018</v>
+        <v>0.02576961353116431</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>50</v>
@@ -3246,19 +3246,19 @@
         <v>55286</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>42407</v>
+        <v>42113</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>73388</v>
+        <v>73031</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01490266028768846</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01143113606231648</v>
+        <v>0.01135180511627431</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01978220199023575</v>
+        <v>0.01968600104529613</v>
       </c>
     </row>
     <row r="12">
@@ -3275,19 +3275,19 @@
         <v>266715</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>236838</v>
+        <v>231783</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>301622</v>
+        <v>297452</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1362778937792604</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1210122479380644</v>
+        <v>0.118429392246263</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.154113792727506</v>
+        <v>0.151983207804783</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>241</v>
@@ -3296,19 +3296,19 @@
         <v>264808</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>235703</v>
+        <v>236406</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>297932</v>
+        <v>296352</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1510877998090154</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1344814542900741</v>
+        <v>0.1348829328592165</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1699865621216773</v>
+        <v>0.1690854096988867</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>487</v>
@@ -3317,19 +3317,19 @@
         <v>531523</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>490007</v>
+        <v>492191</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>579474</v>
+        <v>579850</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1432747359181994</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1320839465056552</v>
+        <v>0.1326727257461556</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1562001260923243</v>
+        <v>0.1563016310502064</v>
       </c>
     </row>
     <row r="13">
@@ -3346,19 +3346,19 @@
         <v>1433395</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1388706</v>
+        <v>1391557</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1468587</v>
+        <v>1474624</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.7323932013192068</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7095595782736088</v>
+        <v>0.7110164778553085</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7503750188257305</v>
+        <v>0.7534596309486307</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1189</v>
@@ -3367,19 +3367,19 @@
         <v>1274467</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1235556</v>
+        <v>1233001</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>1311736</v>
+        <v>1313963</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.7271539217187341</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.7049531528483057</v>
+        <v>0.7034955283841129</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7484183663998246</v>
+        <v>0.7496887033537097</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>2547</v>
@@ -3388,19 +3388,19 @@
         <v>2707861</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2651610</v>
+        <v>2648820</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>2762203</v>
+        <v>2762015</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.7299179383288394</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7147552748903659</v>
+        <v>0.7140032108397173</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7445663099080033</v>
+        <v>0.7445156463606214</v>
       </c>
     </row>
     <row r="14">
@@ -3417,19 +3417,19 @@
         <v>225339</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>198528</v>
+        <v>199889</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>255163</v>
+        <v>255726</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1151368424747357</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1014380691871003</v>
+        <v>0.1021332410337826</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1303756274337596</v>
+        <v>0.1306632232262022</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>167</v>
@@ -3438,19 +3438,19 @@
         <v>177919</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>153013</v>
+        <v>153018</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>204966</v>
+        <v>205778</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1015124322602158</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.08730258315489174</v>
+        <v>0.0873054647906404</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1169444994763769</v>
+        <v>0.1174075617634911</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>384</v>
@@ -3459,19 +3459,19 @@
         <v>403257</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>365970</v>
+        <v>364960</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>447266</v>
+        <v>441960</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1087000799918666</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.09864918258799074</v>
+        <v>0.09837677624982516</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1205629760622913</v>
+        <v>0.1191325485301257</v>
       </c>
     </row>
     <row r="15">
@@ -3563,19 +3563,19 @@
         <v>3820</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>899</v>
+        <v>882</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>12337</v>
+        <v>12065</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.007990359047654678</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.001880693234113854</v>
+        <v>0.001844987549753389</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02580723280335444</v>
+        <v>0.02523925116251198</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -3587,7 +3587,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>7059</v>
+        <v>6350</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.004391409634334948</v>
@@ -3596,7 +3596,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01542494172106145</v>
+        <v>0.01387525859719825</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5</v>
@@ -3605,19 +3605,19 @@
         <v>5829</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1866</v>
+        <v>1961</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>14229</v>
+        <v>12853</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.006230055785593746</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.001993939897713798</v>
+        <v>0.002096160580342104</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01520703570108333</v>
+        <v>0.0137358763408524</v>
       </c>
     </row>
     <row r="17">
@@ -3634,19 +3634,19 @@
         <v>7187</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2910</v>
+        <v>2967</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>14552</v>
+        <v>14035</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01503544144596132</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.006087325839457208</v>
+        <v>0.006207528122280403</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03044143256088893</v>
+        <v>0.02935990358733962</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3</v>
@@ -3655,19 +3655,19 @@
         <v>2768</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>891</v>
+        <v>903</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>7491</v>
+        <v>8338</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.006048074619783548</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.001946184000400919</v>
+        <v>0.001972102680214517</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.01636875462032663</v>
+        <v>0.01821820047144796</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>10</v>
@@ -3676,19 +3676,19 @@
         <v>9955</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5517</v>
+        <v>5186</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>17721</v>
+        <v>18004</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01063957773003711</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.005896568815383093</v>
+        <v>0.005542526972362047</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01893899243366103</v>
+        <v>0.01924129828514364</v>
       </c>
     </row>
     <row r="18">
@@ -3705,19 +3705,19 @@
         <v>62560</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>47771</v>
+        <v>48435</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>79419</v>
+        <v>77166</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1308692338806874</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.09993378301240539</v>
+        <v>0.1013221192049759</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1661386727796877</v>
+        <v>0.1614253207852721</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>67</v>
@@ -3726,19 +3726,19 @@
         <v>74745</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>58551</v>
+        <v>58489</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>92092</v>
+        <v>90975</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1633188741532683</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1279347933122426</v>
+        <v>0.1277997670027625</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2012217490347067</v>
+        <v>0.1987828406636964</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>126</v>
@@ -3747,19 +3747,19 @@
         <v>137304</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>116619</v>
+        <v>116670</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>163183</v>
+        <v>161741</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1467408678117235</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1246342927538071</v>
+        <v>0.1246879453151412</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1743984045315747</v>
+        <v>0.1728568659904693</v>
       </c>
     </row>
     <row r="19">
@@ -3776,19 +3776,19 @@
         <v>341942</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>321399</v>
+        <v>320844</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>364562</v>
+        <v>361618</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.7153137749885622</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.672339378924195</v>
+        <v>0.6711776006033776</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.7626325007246776</v>
+        <v>0.7564730617415981</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>282</v>
@@ -3797,19 +3797,19 @@
         <v>314796</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>294548</v>
+        <v>292152</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>336071</v>
+        <v>333676</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.68783541396578</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.6435934823048614</v>
+        <v>0.6383568879021817</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7343206051933338</v>
+        <v>0.7290880054961734</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>593</v>
@@ -3818,19 +3818,19 @@
         <v>656738</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>625652</v>
+        <v>626700</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>688985</v>
+        <v>684704</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.7018736726171666</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.668650985841817</v>
+        <v>0.6697713271737123</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.7363371281330549</v>
+        <v>0.7317608507451242</v>
       </c>
     </row>
     <row r="20">
@@ -3847,19 +3847,19 @@
         <v>62522</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>47756</v>
+        <v>48649</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>79554</v>
+        <v>81081</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1307911906371345</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0999012763333853</v>
+        <v>0.1017689676276361</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1664206554974583</v>
+        <v>0.1696136288841222</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>57</v>
@@ -3868,19 +3868,19 @@
         <v>63343</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>49510</v>
+        <v>49713</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>79715</v>
+        <v>81751</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1384062276268332</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.10817982044054</v>
+        <v>0.108624797784902</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1741798332441298</v>
+        <v>0.1786274750372244</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>112</v>
@@ -3889,19 +3889,19 @@
         <v>125866</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>105053</v>
+        <v>105588</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>150988</v>
+        <v>150143</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1345158260554791</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1122730923240157</v>
+        <v>0.1128445725475618</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1613644825907771</v>
+        <v>0.1604615123021974</v>
       </c>
     </row>
     <row r="21">
@@ -3993,19 +3993,19 @@
         <v>14383</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>8434</v>
+        <v>7739</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>24105</v>
+        <v>24587</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.00422318286649302</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.002476258393140136</v>
+        <v>0.002272433114522296</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.007077552684695469</v>
+        <v>0.007219148847750198</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>9</v>
@@ -4014,19 +4014,19 @@
         <v>9420</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>4319</v>
+        <v>4300</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>18097</v>
+        <v>17409</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.002662834222314714</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.001220877350656759</v>
+        <v>0.001215556187056344</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.005115725341119415</v>
+        <v>0.004921303344545105</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>22</v>
@@ -4035,19 +4035,19 @@
         <v>23803</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>14875</v>
+        <v>15008</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>35484</v>
+        <v>35290</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.003428209864491101</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.002142346818600157</v>
+        <v>0.002161476647312966</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.005110566257969037</v>
+        <v>0.005082520936643635</v>
       </c>
     </row>
     <row r="23">
@@ -4064,19 +4064,19 @@
         <v>42173</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>29829</v>
+        <v>30962</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>58079</v>
+        <v>58619</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01238258888682746</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.008758256647868333</v>
+        <v>0.009090999375934319</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.01705300695423279</v>
+        <v>0.01721138231439253</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>44</v>
@@ -4085,19 +4085,19 @@
         <v>48296</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>36060</v>
+        <v>35327</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>65981</v>
+        <v>63106</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.01365266910452674</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.01019367486618013</v>
+        <v>0.00998647097871431</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.01865194530609808</v>
+        <v>0.01783896817227985</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>83</v>
@@ -4106,19 +4106,19 @@
         <v>90469</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>72552</v>
+        <v>72209</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>112857</v>
+        <v>113200</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.01302967470781675</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.0104491415147736</v>
+        <v>0.01039972577554962</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01625407586002577</v>
+        <v>0.01630343094848485</v>
       </c>
     </row>
     <row r="24">
@@ -4135,19 +4135,19 @@
         <v>465722</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>427016</v>
+        <v>425718</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>508088</v>
+        <v>508702</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1367436533168324</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1253788962291406</v>
+        <v>0.1249978764071463</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1491829406255163</v>
+        <v>0.1493630877854433</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>503</v>
@@ -4156,19 +4156,19 @@
         <v>545161</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>503246</v>
+        <v>504788</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>594439</v>
+        <v>590122</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1541087339708692</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1422600131570981</v>
+        <v>0.1426959338729533</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1680387419711961</v>
+        <v>0.1668184532022491</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>933</v>
@@ -4177,19 +4177,19 @@
         <v>1010883</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>947117</v>
+        <v>948400</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1070119</v>
+        <v>1076138</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1455908877788554</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1364070639102402</v>
+        <v>0.1365918824358283</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1541222476354595</v>
+        <v>0.1549891488607362</v>
       </c>
     </row>
     <row r="25">
@@ -4206,19 +4206,19 @@
         <v>2501821</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2445665</v>
+        <v>2442671</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>2555275</v>
+        <v>2554016</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.7345754663646489</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.7180873453004673</v>
+        <v>0.7172082584966964</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.7502704323882439</v>
+        <v>0.7499009710035225</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2384</v>
@@ -4227,19 +4227,19 @@
         <v>2568906</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2509822</v>
+        <v>2514863</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>2622220</v>
+        <v>2620930</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.7261905271969685</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.7094885836721421</v>
+        <v>0.7109136595097697</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.7412618089488268</v>
+        <v>0.7408971237067936</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>4728</v>
@@ -4248,19 +4248,19 @@
         <v>5070726</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>4995588</v>
+        <v>4993495</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>5147045</v>
+        <v>5149050</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.7303034722262846</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.7194817323274809</v>
+        <v>0.7191802861878429</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.74129512380639</v>
+        <v>0.741583980988644</v>
       </c>
     </row>
     <row r="26">
@@ -4277,19 +4277,19 @@
         <v>381706</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>341982</v>
+        <v>346457</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>418150</v>
+        <v>426781</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1120751085651982</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1004114842446919</v>
+        <v>0.1017253491573622</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.122775808163396</v>
+        <v>0.1253097835662648</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>338</v>
@@ -4298,19 +4298,19 @@
         <v>365726</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>329292</v>
+        <v>331190</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>402673</v>
+        <v>403402</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1033852355053208</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.09308575383119415</v>
+        <v>0.09362251129416128</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1138296224765415</v>
+        <v>0.1140354939790249</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>700</v>
@@ -4319,19 +4319,19 @@
         <v>747432</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>690785</v>
+        <v>695607</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>802165</v>
+        <v>799749</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1076477554225522</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.09948917113411979</v>
+        <v>0.1001837198976313</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1155305636179243</v>
+        <v>0.1151826421367103</v>
       </c>
     </row>
     <row r="27">
@@ -4665,7 +4665,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8064</v>
+        <v>7010</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.002691142398325273</v>
@@ -4674,7 +4674,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01071129293355499</v>
+        <v>0.0093104757639566</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6977</v>
+        <v>6980</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.001954586854445445</v>
@@ -4695,7 +4695,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.007065901873429616</v>
+        <v>0.007068958534885547</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -4704,19 +4704,19 @@
         <v>3956</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1000</v>
+        <v>1003</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>9459</v>
+        <v>9791</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.002273216835251295</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0005746130830059904</v>
+        <v>0.0005765273225994819</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.00543517218737607</v>
+        <v>0.005625673976367263</v>
       </c>
     </row>
     <row r="5">
@@ -4733,19 +4733,19 @@
         <v>8076</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3557</v>
+        <v>3677</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>14601</v>
+        <v>14938</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01072722397850434</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.004725268588832412</v>
+        <v>0.004884167545726701</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01939338053637169</v>
+        <v>0.0198415951752705</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>21</v>
@@ -4754,19 +4754,19 @@
         <v>23812</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>15655</v>
+        <v>15121</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>37443</v>
+        <v>34705</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02411360546803717</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01585313943667765</v>
+        <v>0.01531302124260703</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.03791795412504066</v>
+        <v>0.03514520792157231</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>30</v>
@@ -4775,19 +4775,19 @@
         <v>31888</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>21469</v>
+        <v>21612</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>44714</v>
+        <v>45277</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01832272857828895</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01233591233924908</v>
+        <v>0.01241824973370909</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02569251298123393</v>
+        <v>0.02601580253690202</v>
       </c>
     </row>
     <row r="6">
@@ -4804,19 +4804,19 @@
         <v>91127</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>73880</v>
+        <v>75114</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>110194</v>
+        <v>112374</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1210400849876513</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.09813200694709706</v>
+        <v>0.09977110607955686</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1463662390068757</v>
+        <v>0.1492609215360189</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>111</v>
@@ -4825,19 +4825,19 @@
         <v>126239</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>105234</v>
+        <v>105462</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>149574</v>
+        <v>148352</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.127839345597416</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1065673928788729</v>
+        <v>0.1067987889948864</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.151469684615793</v>
+        <v>0.1502318752298813</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>202</v>
@@ -4846,19 +4846,19 @@
         <v>217367</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>190573</v>
+        <v>191531</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>248767</v>
+        <v>248892</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1248980218974117</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1095023075622736</v>
+        <v>0.1100530069707009</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1429409094814677</v>
+        <v>0.1430122753280555</v>
       </c>
     </row>
     <row r="7">
@@ -4875,19 +4875,19 @@
         <v>462139</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>431107</v>
+        <v>435890</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>487143</v>
+        <v>489699</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6138386787362917</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5726208556378405</v>
+        <v>0.5789734448732218</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6470500815554794</v>
+        <v>0.6504459073969736</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>563</v>
@@ -4896,19 +4896,19 @@
         <v>628119</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>596953</v>
+        <v>598350</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>659314</v>
+        <v>658648</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.6360792760021154</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6045181171800456</v>
+        <v>0.6059337424251983</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6676698287497026</v>
+        <v>0.6669951178892062</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1030</v>
@@ -4917,19 +4917,19 @@
         <v>1090258</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1048006</v>
+        <v>1049451</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1133995</v>
+        <v>1133173</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.6264581128205967</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6021806142823695</v>
+        <v>0.6030106766016271</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6515893793710926</v>
+        <v>0.6511170245009708</v>
       </c>
     </row>
     <row r="8">
@@ -4946,19 +4946,19 @@
         <v>189499</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>164951</v>
+        <v>168393</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>214253</v>
+        <v>213909</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2517028698992274</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2190973522733478</v>
+        <v>0.2236687638704948</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2845826975652018</v>
+        <v>0.2841258434474924</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>189</v>
@@ -4967,19 +4967,19 @@
         <v>207385</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>181415</v>
+        <v>184283</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>234840</v>
+        <v>237035</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.210013186077986</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1837145697116522</v>
+        <v>0.186618485253418</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.237816026754199</v>
+        <v>0.2400386289646082</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>381</v>
@@ -4988,19 +4988,19 @@
         <v>396884</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>363510</v>
+        <v>363338</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>436221</v>
+        <v>433062</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2280479198684513</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2088717721687474</v>
+        <v>0.2087729816292681</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2506510910318702</v>
+        <v>0.2488356128759145</v>
       </c>
     </row>
     <row r="9">
@@ -5092,19 +5092,19 @@
         <v>9190</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4370</v>
+        <v>4222</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>17078</v>
+        <v>18179</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.004439451762041889</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002110893259873676</v>
+        <v>0.002039548293927338</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.008249855890577636</v>
+        <v>0.008781772665445138</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>4</v>
@@ -5113,19 +5113,19 @@
         <v>3917</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>9816</v>
+        <v>9797</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.001976850144518908</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0004921980933934514</v>
+        <v>0.0004903534251765606</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.004954028389236433</v>
+        <v>0.004944354561896437</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>12</v>
@@ -5134,19 +5134,19 @@
         <v>13107</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>7144</v>
+        <v>7283</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>23398</v>
+        <v>22347</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.003235077883164571</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.001763405447686048</v>
+        <v>0.001797535807593672</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.005775164657630047</v>
+        <v>0.005515713524589937</v>
       </c>
     </row>
     <row r="11">
@@ -5163,19 +5163,19 @@
         <v>20092</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>12018</v>
+        <v>12029</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>32067</v>
+        <v>31014</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.009706004498574611</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.005805719458836399</v>
+        <v>0.00581120506556839</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01549078949447893</v>
+        <v>0.01498205869700051</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>34</v>
@@ -5184,19 +5184,19 @@
         <v>36966</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>26458</v>
+        <v>25613</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>51970</v>
+        <v>51427</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01865595819597643</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01335276358853125</v>
+        <v>0.01292631004097006</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02622821373363107</v>
+        <v>0.02595444254165959</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>52</v>
@@ -5205,19 +5205,19 @@
         <v>57058</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>43210</v>
+        <v>43111</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>73845</v>
+        <v>74899</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01408311948689108</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01066511307708648</v>
+        <v>0.01064069379646267</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01822670405770197</v>
+        <v>0.01848676562811541</v>
       </c>
     </row>
     <row r="12">
@@ -5234,19 +5234,19 @@
         <v>259598</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>228758</v>
+        <v>231065</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>288736</v>
+        <v>291816</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.125406632744709</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1105087126565147</v>
+        <v>0.1116228672471155</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.139482938442282</v>
+        <v>0.1409704724197401</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>239</v>
@@ -5255,19 +5255,19 @@
         <v>253636</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>222341</v>
+        <v>222957</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>283106</v>
+        <v>283572</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1280054898922926</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1122112582212765</v>
+        <v>0.1125225008176615</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.142878705966382</v>
+        <v>0.1431135420198003</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>486</v>
@@ -5276,19 +5276,19 @@
         <v>513234</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>471582</v>
+        <v>470590</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>555087</v>
+        <v>555128</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1266776445239637</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.116397168349379</v>
+        <v>0.1161522686808693</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1370079662060335</v>
+        <v>0.1370180452222905</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>1345365</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1302058</v>
+        <v>1302697</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1389633</v>
+        <v>1388389</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6499201555764698</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6289991778336288</v>
+        <v>0.629307986539789</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6713049778895617</v>
+        <v>0.6707043326445348</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1194</v>
@@ -5326,19 +5326,19 @@
         <v>1237743</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1192438</v>
+        <v>1194775</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>1280595</v>
+        <v>1282715</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.624666496527171</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6018020948525038</v>
+        <v>0.6029813266666815</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6462930637772599</v>
+        <v>0.6473628709883095</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>2454</v>
@@ -5347,19 +5347,19 @@
         <v>2583108</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2523950</v>
+        <v>2522574</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>2650075</v>
+        <v>2644153</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6375694582129059</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6229679946004953</v>
+        <v>0.6226283232596647</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6540984891221912</v>
+        <v>0.6526365896530778</v>
       </c>
     </row>
     <row r="14">
@@ -5376,19 +5376,19 @@
         <v>435802</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>397394</v>
+        <v>398431</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>473290</v>
+        <v>473242</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2105277554182048</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1919734867026811</v>
+        <v>0.1924744326460744</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2286374190743985</v>
+        <v>0.228613954207776</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>430</v>
@@ -5397,19 +5397,19 @@
         <v>449184</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>413787</v>
+        <v>409377</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>487491</v>
+        <v>486973</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.226695205240041</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2088307406799979</v>
+        <v>0.2066052523379157</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2460276506546388</v>
+        <v>0.2457664494651548</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>843</v>
@@ -5418,19 +5418,19 @@
         <v>884987</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>831704</v>
+        <v>834594</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>938763</v>
+        <v>941567</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2184346998930748</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2052832907269125</v>
+        <v>0.2059967199051435</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2317079815635225</v>
+        <v>0.2324000214120534</v>
       </c>
     </row>
     <row r="15">
@@ -5538,7 +5538,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>7446</v>
+        <v>6255</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.002284278042838197</v>
@@ -5547,7 +5547,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01355978860438668</v>
+        <v>0.0113908488349325</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1</v>
@@ -5559,7 +5559,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>6297</v>
+        <v>5634</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.001145426629299785</v>
@@ -5568,7 +5568,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.00575038478850784</v>
+        <v>0.005144823322702091</v>
       </c>
     </row>
     <row r="17">
@@ -5585,19 +5585,19 @@
         <v>6640</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2119</v>
+        <v>1928</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>15228</v>
+        <v>14980</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.0121614113437053</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.003881493606806534</v>
+        <v>0.003531304864376499</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.02789032951430057</v>
+        <v>0.02743713605719722</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>7</v>
@@ -5606,19 +5606,19 @@
         <v>7567</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3168</v>
+        <v>3194</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>15441</v>
+        <v>15221</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01377944756775976</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.005769897872936102</v>
+        <v>0.0058164519523659</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.02811874674786641</v>
+        <v>0.02771786538499368</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>12</v>
@@ -5627,19 +5627,19 @@
         <v>14207</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>7227</v>
+        <v>7750</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>24352</v>
+        <v>24424</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01297275818653573</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.00659950170724303</v>
+        <v>0.00707657669621651</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02223624893682133</v>
+        <v>0.02230265916025652</v>
       </c>
     </row>
     <row r="18">
@@ -5656,19 +5656,19 @@
         <v>63898</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>48848</v>
+        <v>49022</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>80271</v>
+        <v>81469</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1170313029022555</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.08946676365249956</v>
+        <v>0.08978534208677866</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1470194301665404</v>
+        <v>0.1492144875296285</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>59</v>
@@ -5677,19 +5677,19 @@
         <v>64593</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>49431</v>
+        <v>49676</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>82785</v>
+        <v>81758</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1176253258456877</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.09001580832572444</v>
+        <v>0.09046233244069828</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1507533277559865</v>
+        <v>0.148883564196426</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>117</v>
@@ -5698,19 +5698,19 @@
         <v>128490</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>105359</v>
+        <v>109350</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>150675</v>
+        <v>151146</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.117329169311275</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.09620721196199425</v>
+        <v>0.09985147469082141</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1375866021695251</v>
+        <v>0.1380167659665452</v>
       </c>
     </row>
     <row r="19">
@@ -5727,19 +5727,19 @@
         <v>350606</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>327155</v>
+        <v>326210</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>373070</v>
+        <v>373398</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.6421500375505703</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.5991975531791494</v>
+        <v>0.5974666184393657</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.6832931623520331</v>
+        <v>0.6838946913161249</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>337</v>
@@ -5748,19 +5748,19 @@
         <v>353237</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>330233</v>
+        <v>329736</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>376376</v>
+        <v>374849</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.6432541323899463</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.6013636685715953</v>
+        <v>0.6004598063608799</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6853918201694505</v>
+        <v>0.6826102444454002</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>659</v>
@@ -5769,19 +5769,19 @@
         <v>703843</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>672688</v>
+        <v>669533</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>736388</v>
+        <v>735215</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.6427036740197641</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.6142548875109435</v>
+        <v>0.6113745009882359</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6724221290332408</v>
+        <v>0.6713509827076286</v>
       </c>
     </row>
     <row r="20">
@@ -5798,19 +5798,19 @@
         <v>124844</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>105406</v>
+        <v>106976</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>145138</v>
+        <v>146244</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2286572482034688</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1930558898486691</v>
+        <v>0.195931889888279</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2658256087042451</v>
+        <v>0.2678527759019599</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>122</v>
@@ -5819,19 +5819,19 @@
         <v>122489</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>103263</v>
+        <v>104794</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>142086</v>
+        <v>144468</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.223056816153768</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1880457947370479</v>
+        <v>0.1908330142844641</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2587425527237911</v>
+        <v>0.2630807587155977</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>237</v>
@@ -5840,19 +5840,19 @@
         <v>247334</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>221211</v>
+        <v>219022</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>276669</v>
+        <v>278186</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2258489718531254</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2019959566774498</v>
+        <v>0.1999963698313098</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2526362970474073</v>
+        <v>0.2540217980712039</v>
       </c>
     </row>
     <row r="21">
@@ -5944,19 +5944,19 @@
         <v>11216</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>5835</v>
+        <v>6188</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>20167</v>
+        <v>20549</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.003329258657412525</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.001731881396979693</v>
+        <v>0.001836884950483078</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.00598633837568439</v>
+        <v>0.006099593827351187</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>7</v>
@@ -5965,19 +5965,19 @@
         <v>7102</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2975</v>
+        <v>3001</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>13849</v>
+        <v>14237</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.002018587900422244</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.000845519958081927</v>
+        <v>0.0008529746017275651</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.003936563159053933</v>
+        <v>0.004046844786891914</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>17</v>
@@ -5986,19 +5986,19 @@
         <v>18317</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>11504</v>
+        <v>10646</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>30457</v>
+        <v>28567</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.002659728937740216</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.001670462638617527</v>
+        <v>0.001545800109453752</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.004422411902746764</v>
+        <v>0.004147986266102889</v>
       </c>
     </row>
     <row r="23">
@@ -6015,19 +6015,19 @@
         <v>34808</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>24327</v>
+        <v>24331</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>49543</v>
+        <v>47417</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.0103321625411134</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.007221154216166417</v>
+        <v>0.007222316660247406</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.01470596907492094</v>
+        <v>0.01407480149968704</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>62</v>
@@ -6036,19 +6036,19 @@
         <v>68344</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>53013</v>
+        <v>53292</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>87350</v>
+        <v>86814</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.01942668014869145</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.01506870624092994</v>
+        <v>0.01514806646328351</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.02482903219502233</v>
+        <v>0.02467671092563859</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>94</v>
@@ -6057,19 +6057,19 @@
         <v>103152</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>83556</v>
+        <v>84233</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>127694</v>
+        <v>126314</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.01497791342239423</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.01213252527035025</v>
+        <v>0.01223082845653251</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01854138037958534</v>
+        <v>0.01834094153499958</v>
       </c>
     </row>
     <row r="24">
@@ -6086,19 +6086,19 @@
         <v>414622</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>374440</v>
+        <v>377295</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>453845</v>
+        <v>456235</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1230734514982492</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1111459202740465</v>
+        <v>0.1119933999157477</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1347160472688659</v>
+        <v>0.1354253078848595</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>409</v>
@@ -6107,19 +6107,19 @@
         <v>444468</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>403107</v>
+        <v>407042</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>486029</v>
+        <v>489164</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1263386016239195</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1145818274360193</v>
+        <v>0.1157003729627006</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1381520334633718</v>
+        <v>0.1390431183429117</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>805</v>
@@ -6128,19 +6128,19 @@
         <v>859091</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>805743</v>
+        <v>802982</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>917170</v>
+        <v>912331</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.124741387581105</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1169952229000352</v>
+        <v>0.1165943833206382</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1331745462518177</v>
+        <v>0.1324720030224966</v>
       </c>
     </row>
     <row r="25">
@@ -6157,19 +6157,19 @@
         <v>2158110</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2103441</v>
+        <v>2102486</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>2219210</v>
+        <v>2215429</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.6405975523603902</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.6243698128715953</v>
+        <v>0.6240865429008871</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.6587340563668777</v>
+        <v>0.6576116533735762</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2094</v>
@@ -6178,19 +6178,19 @@
         <v>2219098</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2158151</v>
+        <v>2157665</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>2279586</v>
+        <v>2276309</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.6307713092550031</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.6134471159008288</v>
+        <v>0.6133090442289393</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.6479646462684423</v>
+        <v>0.6470333132245779</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>4143</v>
@@ -6199,19 +6199,19 @@
         <v>4377209</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>4290002</v>
+        <v>4296571</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>4450247</v>
+        <v>4460271</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.6355780142676283</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.622915482256409</v>
+        <v>0.623869342453316</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.6461832490707653</v>
+        <v>0.6476387887146039</v>
       </c>
     </row>
     <row r="26">
@@ -6228,19 +6228,19 @@
         <v>750145</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>703707</v>
+        <v>698977</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>800034</v>
+        <v>795158</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2226675749428348</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2088832624194151</v>
+        <v>0.2074791228770916</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2374762156259675</v>
+        <v>0.2360288748210026</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>741</v>
@@ -6249,19 +6249,19 @@
         <v>779059</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>728124</v>
+        <v>725398</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>831366</v>
+        <v>830640</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2214448210719636</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2069669266399458</v>
+        <v>0.2061921000920167</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2363129071372439</v>
+        <v>0.23610665531547</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1461</v>
@@ -6270,19 +6270,19 @@
         <v>1529204</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1460988</v>
+        <v>1463012</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1603743</v>
+        <v>1606946</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2220429557911323</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.212137973970126</v>
+        <v>0.212431728877428</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2328661660879159</v>
+        <v>0.233331264780258</v>
       </c>
     </row>
     <row r="27">
@@ -6613,19 +6613,19 @@
         <v>5240</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2227</v>
+        <v>1866</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>11407</v>
+        <v>11376</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.009123130032506307</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.003877357596510361</v>
+        <v>0.003248117544368701</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01985868090963604</v>
+        <v>0.01980473696858214</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -6634,19 +6634,19 @@
         <v>4967</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1941</v>
+        <v>2081</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>10355</v>
+        <v>11158</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.006069605760762395</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.002372053183802954</v>
+        <v>0.002542636237194621</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0126520950824192</v>
+        <v>0.01363369806133209</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>13</v>
@@ -6655,19 +6655,19 @@
         <v>10208</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5803</v>
+        <v>5307</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>17764</v>
+        <v>18067</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.007328888040241839</v>
+        <v>0.00732888804024184</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.004166265435267224</v>
+        <v>0.00381050057526731</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01275423172520609</v>
+        <v>0.01297179306828684</v>
       </c>
     </row>
     <row r="5">
@@ -6684,19 +6684,19 @@
         <v>6673</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3108</v>
+        <v>3141</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>13452</v>
+        <v>13893</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01161668209615436</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.005411703956587783</v>
+        <v>0.005467723006190517</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02341923904690886</v>
+        <v>0.02418695287767394</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>15</v>
@@ -6705,19 +6705,19 @@
         <v>8332</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4884</v>
+        <v>4960</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>14000</v>
+        <v>13899</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01018042229430485</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.005967694202261015</v>
+        <v>0.006060990192119303</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.01710671020613493</v>
+        <v>0.01698266414761872</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>23</v>
@@ -6726,19 +6726,19 @@
         <v>15004</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>9427</v>
+        <v>10014</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>23004</v>
+        <v>22718</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01077274000860447</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.006768163204853914</v>
+        <v>0.007189480932959145</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01651610726317589</v>
+        <v>0.01631059517091479</v>
       </c>
     </row>
     <row r="6">
@@ -6755,19 +6755,19 @@
         <v>50792</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>39203</v>
+        <v>38190</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>64700</v>
+        <v>64971</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.08842645229404475</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.06825018335658115</v>
+        <v>0.06648725741471768</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1126378687621063</v>
+        <v>0.1131111341726753</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>125</v>
@@ -6776,19 +6776,19 @@
         <v>77980</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>64888</v>
+        <v>64898</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>93697</v>
+        <v>91724</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.09528127254527774</v>
+        <v>0.09528127254527773</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.07928485470347335</v>
+        <v>0.07929725904182408</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1144859254850389</v>
+        <v>0.1120742929332356</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>184</v>
@@ -6797,19 +6797,19 @@
         <v>128772</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>111128</v>
+        <v>109908</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>148798</v>
+        <v>148869</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.09245432476193342</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.0797866119211081</v>
+        <v>0.07891067323392198</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1068320829042858</v>
+        <v>0.1068828410280153</v>
       </c>
     </row>
     <row r="7">
@@ -6826,19 +6826,19 @@
         <v>351277</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>329757</v>
+        <v>328650</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>374936</v>
+        <v>373922</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6115517560705837</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5740864619734788</v>
+        <v>0.5721596682635283</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6527409455381111</v>
+        <v>0.6509749662414637</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>930</v>
@@ -6847,19 +6847,19 @@
         <v>548621</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>526643</v>
+        <v>527567</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>569279</v>
+        <v>569300</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.6703428088232923</v>
+        <v>0.6703428088232921</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6434888717807978</v>
+        <v>0.6446175791758957</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6955840721309191</v>
+        <v>0.6956102393186328</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1359</v>
@@ -6868,19 +6868,19 @@
         <v>899898</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>870910</v>
+        <v>867617</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>932369</v>
+        <v>931362</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.6460972078930777</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6252849709555469</v>
+        <v>0.6229207894027927</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6694106081713238</v>
+        <v>0.6686874041032561</v>
       </c>
     </row>
     <row r="8">
@@ -6897,19 +6897,19 @@
         <v>160420</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>139595</v>
+        <v>142442</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>182106</v>
+        <v>182050</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2792819795067109</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2430257631416875</v>
+        <v>0.2479824740921477</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3170349755132547</v>
+        <v>0.3169372341901979</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>343</v>
@@ -6918,19 +6918,19 @@
         <v>178518</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>161240</v>
+        <v>161554</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>197021</v>
+        <v>195930</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.2181258905763628</v>
+        <v>0.2181258905763627</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1970142622231067</v>
+        <v>0.1973978180270686</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2407342144153433</v>
+        <v>0.2394003614854757</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>529</v>
@@ -6939,19 +6939,19 @@
         <v>338939</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>311119</v>
+        <v>310898</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>366096</v>
+        <v>369782</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2433468392961426</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.223373440114179</v>
+        <v>0.2232145566293008</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2628446909110484</v>
+        <v>0.2654916979583339</v>
       </c>
     </row>
     <row r="9">
@@ -7046,7 +7046,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9148</v>
+        <v>9335</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.001215693458569662</v>
@@ -7055,7 +7055,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.00410364768773356</v>
+        <v>0.004187704237654177</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -7064,19 +7064,19 @@
         <v>3536</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1346</v>
+        <v>1160</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>8638</v>
+        <v>8907</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.001630846484811985</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0006206148962015875</v>
+        <v>0.0005348239785550034</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.003983755721008719</v>
+        <v>0.004107602339743097</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>7</v>
@@ -7085,19 +7085,19 @@
         <v>6246</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2452</v>
+        <v>2528</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>13874</v>
+        <v>15238</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.001420395975156645</v>
+        <v>0.001420395975156646</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0005575776558933148</v>
+        <v>0.0005748394808864586</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.003154857322789572</v>
+        <v>0.003464930795082389</v>
       </c>
     </row>
     <row r="11">
@@ -7114,19 +7114,19 @@
         <v>10435</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>4663</v>
+        <v>4960</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>19439</v>
+        <v>19332</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.004681102203210568</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.002091918209097896</v>
+        <v>0.002224874434059912</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.008719867410498846</v>
+        <v>0.008671956823236855</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>25</v>
@@ -7135,19 +7135,19 @@
         <v>18558</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>12073</v>
+        <v>11967</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>27811</v>
+        <v>27708</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.008558262343054372</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.00556781760064492</v>
+        <v>0.005518975166382271</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.01282577363245666</v>
+        <v>0.01277825917761412</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>34</v>
@@ -7156,19 +7156,19 @@
         <v>28993</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>20186</v>
+        <v>20187</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>42304</v>
+        <v>42084</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.006592841700861507</v>
+        <v>0.006592841700861509</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.004590154331850941</v>
+        <v>0.004590521817116436</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.00961979313380572</v>
+        <v>0.009569626632353462</v>
       </c>
     </row>
     <row r="12">
@@ -7185,19 +7185,19 @@
         <v>156276</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>129531</v>
+        <v>130591</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>185079</v>
+        <v>188750</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.07010217038969578</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.05810482393464701</v>
+        <v>0.05858052229549443</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.08302267118352605</v>
+        <v>0.08466931424718697</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>230</v>
@@ -7206,19 +7206,19 @@
         <v>182380</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>158729</v>
+        <v>160140</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>211611</v>
+        <v>209720</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.08410890957658301</v>
+        <v>0.084108909576583</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.07320199510792924</v>
+        <v>0.07385231448167258</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.09758956871693489</v>
+        <v>0.09671765408432692</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>366</v>
@@ -7227,19 +7227,19 @@
         <v>338656</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>304198</v>
+        <v>300380</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>378472</v>
+        <v>376648</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.07700857496702805</v>
+        <v>0.07700857496702807</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.06917314517439359</v>
+        <v>0.06830490867372936</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.08606267758691687</v>
+        <v>0.08564788898464894</v>
       </c>
     </row>
     <row r="13">
@@ -7256,19 +7256,19 @@
         <v>1629120</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1571325</v>
+        <v>1576735</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1673854</v>
+        <v>1678830</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.7307888406400819</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7048632296906491</v>
+        <v>0.7072901896639516</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7508558406644209</v>
+        <v>0.753087888416916</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2162</v>
@@ -7277,19 +7277,19 @@
         <v>1580257</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1539129</v>
+        <v>1541564</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>1618095</v>
+        <v>1619483</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.728774765871687</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.7098073508975178</v>
+        <v>0.7109303058095537</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7462246096828109</v>
+        <v>0.7468648014687668</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>3667</v>
@@ -7298,19 +7298,19 @@
         <v>3209377</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3144358</v>
+        <v>3152636</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>3275281</v>
+        <v>3281034</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.7297957461722021</v>
+        <v>0.7297957461722023</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.71501091960365</v>
+        <v>0.7168932640147161</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7447819898728317</v>
+        <v>0.7460901224908941</v>
       </c>
     </row>
     <row r="14">
@@ -7327,19 +7327,19 @@
         <v>430721</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>389147</v>
+        <v>384836</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>484863</v>
+        <v>475742</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.193212193308442</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1745629647774922</v>
+        <v>0.1726292762141005</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.217499505396394</v>
+        <v>0.2134076314467082</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>494</v>
@@ -7348,19 +7348,19 @@
         <v>383645</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>353280</v>
+        <v>353183</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>418560</v>
+        <v>417910</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.1769272157238636</v>
+        <v>0.1769272157238635</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1629236810020138</v>
+        <v>0.1628793061372667</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1930295054061313</v>
+        <v>0.1927294890304483</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>832</v>
@@ -7369,19 +7369,19 @@
         <v>814365</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>754404</v>
+        <v>756389</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>870868</v>
+        <v>869873</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.1851824411847515</v>
+        <v>0.1851824411847516</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1715476950699046</v>
+        <v>0.1719989571000383</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1980308510699074</v>
+        <v>0.1978047121579815</v>
       </c>
     </row>
     <row r="15">
@@ -7476,7 +7476,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8494</v>
+        <v>6938</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.001932561435657585</v>
@@ -7485,7 +7485,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01196106397166135</v>
+        <v>0.00977026551207842</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -7494,19 +7494,19 @@
         <v>2389</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>718</v>
+        <v>649</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>7007</v>
+        <v>5754</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.003262118275413304</v>
+        <v>0.003262118275413305</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0009800387231606647</v>
+        <v>0.0008856474677019751</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.009569019196961754</v>
+        <v>0.007857491087600419</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5</v>
@@ -7515,19 +7515,19 @@
         <v>3761</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1219</v>
+        <v>1437</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>9584</v>
+        <v>10449</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.002607532651381459</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0008447945335594824</v>
+        <v>0.0009960992284077435</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.006644567483104469</v>
+        <v>0.007243808453642537</v>
       </c>
     </row>
     <row r="17">
@@ -7544,19 +7544,19 @@
         <v>11437</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>6176</v>
+        <v>6151</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>22266</v>
+        <v>22273</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.0161055924340481</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.00869701788591073</v>
+        <v>0.008661879317584992</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03135445278204556</v>
+        <v>0.03136378507319421</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>12</v>
@@ -7565,19 +7565,19 @@
         <v>9823</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>5264</v>
+        <v>5022</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>16934</v>
+        <v>18791</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01341406086382473</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.007188660320141437</v>
+        <v>0.00685861604842313</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.02312540898557077</v>
+        <v>0.02566187102590252</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>24</v>
@@ -7586,19 +7586,19 @@
         <v>21260</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>13311</v>
+        <v>13763</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>33850</v>
+        <v>32267</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.01473919253162149</v>
+        <v>0.01473919253162148</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.009228078410470613</v>
+        <v>0.009541590008042904</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02346731599224909</v>
+        <v>0.02237036169701471</v>
       </c>
     </row>
     <row r="18">
@@ -7615,19 +7615,19 @@
         <v>60020</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>46238</v>
+        <v>45164</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>79558</v>
+        <v>79256</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.08451657190132306</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.06511074034520602</v>
+        <v>0.06359771953929694</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1120291239844905</v>
+        <v>0.1116046500532046</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>95</v>
@@ -7636,19 +7636,19 @@
         <v>70340</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>57256</v>
+        <v>56717</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>85594</v>
+        <v>85826</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.09605759458058756</v>
+        <v>0.09605759458058757</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.07818969318526552</v>
+        <v>0.0774545775369863</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1168889911803405</v>
+        <v>0.1172063106199836</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>151</v>
@@ -7657,19 +7657,19 @@
         <v>130359</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>110010</v>
+        <v>110289</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>153140</v>
+        <v>154175</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.0903755603067764</v>
+        <v>0.09037556030677642</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.07626757060994446</v>
+        <v>0.0764614244565647</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1061688969943916</v>
+        <v>0.1068868106557803</v>
       </c>
     </row>
     <row r="19">
@@ -7686,19 +7686,19 @@
         <v>497809</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>468696</v>
+        <v>470491</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>523770</v>
+        <v>524077</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.7009908577346792</v>
+        <v>0.7009908577346791</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.6599946222790829</v>
+        <v>0.6625231720842273</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.7375474378089961</v>
+        <v>0.7379800376222702</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>718</v>
@@ -7707,19 +7707,19 @@
         <v>519259</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>498055</v>
+        <v>495221</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>540936</v>
+        <v>540417</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.7091117888739121</v>
+        <v>0.7091117888739122</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.6801554089398891</v>
+        <v>0.6762853059326872</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.738714144692465</v>
+        <v>0.738005551002334</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1207</v>
@@ -7728,19 +7728,19 @@
         <v>1017069</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>981587</v>
+        <v>979789</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>1051516</v>
+        <v>1049151</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.7051135808856992</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.6805152008076473</v>
+        <v>0.6792686352200384</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.728995139894915</v>
+        <v>0.7273557696348</v>
       </c>
     </row>
     <row r="20">
@@ -7757,19 +7757,19 @@
         <v>139512</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>115730</v>
+        <v>117820</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>164058</v>
+        <v>163672</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1964544164942921</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1629650438640962</v>
+        <v>0.1659078638199649</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2310180451322274</v>
+        <v>0.2304753157543443</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>171</v>
@@ -7778,19 +7778,19 @@
         <v>130457</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>112079</v>
+        <v>113776</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>148302</v>
+        <v>151432</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1781544374062622</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1530580105707774</v>
+        <v>0.1553750422911031</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2025238181121025</v>
+        <v>0.2067989989810632</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>293</v>
@@ -7799,19 +7799,19 @@
         <v>269969</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>240808</v>
+        <v>242480</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>300019</v>
+        <v>300554</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1871641336245214</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1669476701782426</v>
+        <v>0.168106810918795</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2079972833292298</v>
+        <v>0.2083678718884742</v>
       </c>
     </row>
     <row r="21">
@@ -7903,19 +7903,19 @@
         <v>9323</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4098</v>
+        <v>4248</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>17204</v>
+        <v>17569</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.002653202702776792</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.001166121455576267</v>
+        <v>0.001208814371358329</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.004896033795261147</v>
+        <v>0.004999877606344297</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>16</v>
@@ -7924,19 +7924,19 @@
         <v>10892</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>6311</v>
+        <v>6106</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>18098</v>
+        <v>19148</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.002928832088707277</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.001696896129150052</v>
+        <v>0.001641856165236261</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.00486635497566303</v>
+        <v>0.005148729133924907</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>25</v>
@@ -7945,19 +7945,19 @@
         <v>20215</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>13389</v>
+        <v>12008</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>31272</v>
+        <v>30579</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.002794928077825539</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.001851186735580768</v>
+        <v>0.00166025207011997</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.004323646102828147</v>
+        <v>0.0042278229062119</v>
       </c>
     </row>
     <row r="23">
@@ -7974,19 +7974,19 @@
         <v>28545</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>18908</v>
+        <v>18738</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>41680</v>
+        <v>42060</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.008123778627726815</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.005381017829958343</v>
+        <v>0.005332626393968619</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.01186160992930136</v>
+        <v>0.01196986922893778</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>52</v>
@@ -7995,19 +7995,19 @@
         <v>36712</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>27887</v>
+        <v>27450</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>48850</v>
+        <v>48194</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.009871321541578533</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.007498455332589868</v>
+        <v>0.007381006932545141</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.01313505227315521</v>
+        <v>0.01295862032558079</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>81</v>
@@ -8016,19 +8016,19 @@
         <v>65257</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>53087</v>
+        <v>51263</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>83989</v>
+        <v>81792</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.009022344555460944</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.007339616249024569</v>
+        <v>0.00708749109535437</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.0116120597172989</v>
+        <v>0.01130839193174786</v>
       </c>
     </row>
     <row r="24">
@@ -8045,19 +8045,19 @@
         <v>267088</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>232966</v>
+        <v>231378</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>303405</v>
+        <v>302428</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.07601082603562032</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.06630013917081856</v>
+        <v>0.06584796263268915</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.08634619110092559</v>
+        <v>0.08606832660630619</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>450</v>
@@ -8066,19 +8066,19 @@
         <v>330699</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>302323</v>
+        <v>301775</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>365801</v>
+        <v>366354</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.08892014938596247</v>
+        <v>0.08892014938596246</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.08129019461931908</v>
+        <v>0.08114286249184624</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.09835851950154989</v>
+        <v>0.09850705016245083</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>701</v>
@@ -8087,19 +8087,19 @@
         <v>597787</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>553318</v>
+        <v>551498</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>647702</v>
+        <v>647760</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.08264864764261767</v>
+        <v>0.08264864764261765</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.07650040227613883</v>
+        <v>0.07624874088866444</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.0895497009902524</v>
+        <v>0.08955773512081482</v>
       </c>
     </row>
     <row r="25">
@@ -8116,19 +8116,19 @@
         <v>2478206</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2417098</v>
+        <v>2422907</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>2540941</v>
+        <v>2546758</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.7052749121104376</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.6878839521702115</v>
+        <v>0.6895371048563195</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.7231285998257065</v>
+        <v>0.7247840035279774</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>3810</v>
@@ -8137,19 +8137,19 @@
         <v>2648136</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2595115</v>
+        <v>2594128</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>2697004</v>
+        <v>2693733</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.7120446496753291</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.6977880270637903</v>
+        <v>0.6975226303505777</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.7251844487381781</v>
+        <v>0.724304924431739</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>6233</v>
@@ -8158,19 +8158,19 @@
         <v>5126342</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>5057539</v>
+        <v>5048742</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>5207283</v>
+        <v>5199753</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.7087558312153687</v>
+        <v>0.7087558312153688</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.6992433009790203</v>
+        <v>0.6980270077490571</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.7199465563646503</v>
+        <v>0.7189054156840811</v>
       </c>
     </row>
     <row r="26">
@@ -8187,19 +8187,19 @@
         <v>730653</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>670275</v>
+        <v>673011</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>781144</v>
+        <v>782559</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2079372805234385</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1907541149644155</v>
+        <v>0.1915328719441665</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2223064322501641</v>
+        <v>0.2227092587762008</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1008</v>
@@ -8208,19 +8208,19 @@
         <v>692619</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>652908</v>
+        <v>653734</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>738775</v>
+        <v>737383</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1862350473084226</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1755572577541635</v>
+        <v>0.175779291720239</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1986455755241702</v>
+        <v>0.1982715172579665</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1654</v>
@@ -8229,19 +8229,19 @@
         <v>1423272</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1349263</v>
+        <v>1353358</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1494513</v>
+        <v>1491098</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1967782485087272</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1865459121360747</v>
+        <v>0.1871120039692073</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2066278531290135</v>
+        <v>0.2061556344073301</v>
       </c>
     </row>
     <row r="27">
